--- a/Code/Results/Cases/Case_2_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.20845727829429</v>
+        <v>18.74414781856099</v>
       </c>
       <c r="C2">
-        <v>12.61414017268294</v>
+        <v>11.41650246686654</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.360488817284304</v>
+        <v>15.77264841220765</v>
       </c>
       <c r="F2">
-        <v>25.87245393081686</v>
+        <v>37.67989913236096</v>
       </c>
       <c r="G2">
-        <v>2.085312794134773</v>
+        <v>3.651159446677739</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.153570428470199</v>
+        <v>7.897145562944408</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.183304546854041</v>
+        <v>12.74054999606443</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.97178312163899</v>
+        <v>24.11707720413692</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.56902796655632</v>
+        <v>18.15060801836043</v>
       </c>
       <c r="C3">
-        <v>12.15758851488861</v>
+        <v>11.25089673109048</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.323290401942065</v>
+        <v>15.80305615782843</v>
       </c>
       <c r="F3">
-        <v>25.42355392550696</v>
+        <v>37.76966863127084</v>
       </c>
       <c r="G3">
-        <v>2.091473134353534</v>
+        <v>3.653441036034238</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.168220561484508</v>
+        <v>7.905711441890567</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.840073546140468</v>
+        <v>12.69214155118813</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.02842667380562</v>
+        <v>24.24584427579515</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.50308105825947</v>
+        <v>17.77753823037522</v>
       </c>
       <c r="C4">
-        <v>11.86950357129552</v>
+        <v>11.14789228683985</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.304986710839692</v>
+        <v>15.82383742462421</v>
       </c>
       <c r="F4">
-        <v>25.17341731969791</v>
+        <v>37.83545521144573</v>
       </c>
       <c r="G4">
-        <v>2.095363433333575</v>
+        <v>3.654915341393064</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.178132965400655</v>
+        <v>7.911455398534524</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.625365810614728</v>
+        <v>12.66375553266892</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.08520414957931</v>
+        <v>24.33187061669377</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.05367622394035</v>
+        <v>17.6235546178762</v>
       </c>
       <c r="C5">
-        <v>11.75027296803363</v>
+        <v>11.10562049341983</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.298648772466288</v>
+        <v>15.83283701249318</v>
       </c>
       <c r="F5">
-        <v>25.07782955555798</v>
+        <v>37.86493712084933</v>
       </c>
       <c r="G5">
-        <v>2.096976717992305</v>
+        <v>3.655534650084171</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.182402078126149</v>
+        <v>7.91391828278268</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.536988087870673</v>
+        <v>12.65253120016222</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.11356742190227</v>
+        <v>24.36867131735724</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.97814255319241</v>
+        <v>17.59787437163662</v>
       </c>
       <c r="C6">
-        <v>11.73036780280054</v>
+        <v>11.09858443631823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.297663470733921</v>
+        <v>15.83436346903716</v>
       </c>
       <c r="F6">
-        <v>25.06233812186326</v>
+        <v>37.86999374857911</v>
       </c>
       <c r="G6">
-        <v>2.097246315002316</v>
+        <v>3.655638605989306</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.183124811209789</v>
+        <v>7.914334632222275</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.522263299901491</v>
+        <v>12.65068833516502</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.11858388937202</v>
+        <v>24.37488720243772</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.49708119065656</v>
+        <v>17.77546916886692</v>
       </c>
       <c r="C7">
-        <v>11.86790284353072</v>
+        <v>11.14732334800171</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.30489672318828</v>
+        <v>15.82395664565134</v>
       </c>
       <c r="F7">
-        <v>25.17210260286166</v>
+        <v>37.83584200328936</v>
       </c>
       <c r="G7">
-        <v>2.095385076377003</v>
+        <v>3.654923618551716</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.178189611114227</v>
+        <v>7.911488118711802</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.624177331656604</v>
+        <v>12.66360275876897</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.08556590815151</v>
+        <v>24.33235987009516</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.65543311298082</v>
+        <v>18.54141163798687</v>
       </c>
       <c r="C8">
-        <v>12.45839785001664</v>
+        <v>11.3596971631183</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.346709713679381</v>
+        <v>15.78269508447835</v>
       </c>
       <c r="F8">
-        <v>25.71235125749125</v>
+        <v>37.70863232089724</v>
       </c>
       <c r="G8">
-        <v>2.08741502194557</v>
+        <v>3.651930940769566</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.158430870495143</v>
+        <v>7.899998735965022</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.065845296384168</v>
+        <v>12.72358557666103</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.98656355671769</v>
+        <v>24.16002699245087</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.4219673352154</v>
+        <v>19.96630938864775</v>
       </c>
       <c r="C9">
-        <v>13.55037550973882</v>
+        <v>11.76414681801424</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.465539999830732</v>
+        <v>15.71851666701057</v>
       </c>
       <c r="F9">
-        <v>26.97579731603517</v>
+        <v>37.5441900992102</v>
       </c>
       <c r="G9">
-        <v>2.072600729808043</v>
+        <v>3.64664195591925</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.127006345462207</v>
+        <v>7.881296803184569</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.896168506522665</v>
+        <v>12.85149954249576</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.98065758080054</v>
+        <v>23.87762403061025</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.91195215602091</v>
+        <v>20.95589401522366</v>
       </c>
       <c r="C10">
-        <v>14.30757150998096</v>
+        <v>12.05199903024433</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.576403752718136</v>
+        <v>15.68154904208</v>
       </c>
       <c r="F10">
-        <v>28.02961787230671</v>
+        <v>37.4756541834253</v>
       </c>
       <c r="G10">
-        <v>2.062152948157343</v>
+        <v>3.643105650006215</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.108451917581889</v>
+        <v>7.869870000069638</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.47948857840445</v>
+        <v>12.95130350110248</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.10956274985514</v>
+        <v>23.70440383411236</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98602911720881</v>
+        <v>21.39181269595468</v>
       </c>
       <c r="C11">
-        <v>14.64150276677957</v>
+        <v>12.18053654162617</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.632176683750334</v>
+        <v>15.66693844230284</v>
       </c>
       <c r="F11">
-        <v>28.5362878128564</v>
+        <v>37.45590347369708</v>
       </c>
       <c r="G11">
-        <v>2.057480193962007</v>
+        <v>3.641571964239032</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.101012560224375</v>
+        <v>7.865169664990964</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.73826877573165</v>
+        <v>12.99787118792185</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.20095484660329</v>
+        <v>23.63312703189342</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.38445239301623</v>
+        <v>21.5547039257342</v>
       </c>
       <c r="C12">
-        <v>14.7663950444321</v>
+        <v>12.22883272593341</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.654081643915271</v>
+        <v>15.66172259399167</v>
       </c>
       <c r="F12">
-        <v>28.73206250039945</v>
+        <v>37.45007194035607</v>
       </c>
       <c r="G12">
-        <v>2.055720946640222</v>
+        <v>3.641001919557322</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.098341021505106</v>
+        <v>7.863460997389337</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.83526648950587</v>
+        <v>13.01566393979665</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.24057017692998</v>
+        <v>23.60722515342068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.29901219994334</v>
+        <v>21.51972137364925</v>
       </c>
       <c r="C13">
-        <v>14.73956727751641</v>
+        <v>12.21844859134715</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.649328838834073</v>
+        <v>15.66283183383715</v>
       </c>
       <c r="F13">
-        <v>28.68972522696451</v>
+        <v>37.45125452714377</v>
       </c>
       <c r="G13">
-        <v>2.05609939882246</v>
+        <v>3.641124212594504</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.098909883002127</v>
+        <v>7.86382582606514</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.81442132538922</v>
+        <v>13.0118250472961</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.23181103667067</v>
+        <v>23.61275503009545</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.01897337974784</v>
+        <v>21.40525828796305</v>
       </c>
       <c r="C14">
-        <v>14.65180922809851</v>
+        <v>12.18451765488149</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.633962989560889</v>
+        <v>15.66650298309495</v>
       </c>
       <c r="F14">
-        <v>28.55231602846104</v>
+        <v>37.45539066726605</v>
       </c>
       <c r="G14">
-        <v>2.057335262431626</v>
+        <v>3.641524851616385</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.100789843628408</v>
+        <v>7.865027665877109</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.74626906643606</v>
+        <v>12.99933188328208</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.20411202262621</v>
+        <v>23.6309741990219</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.84636356796011</v>
+        <v>21.33485853301488</v>
       </c>
       <c r="C15">
-        <v>14.59785049754002</v>
+        <v>12.16368380300221</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.624653689233414</v>
+        <v>15.66879292185629</v>
       </c>
       <c r="F15">
-        <v>28.46865771639707</v>
+        <v>37.45813885671387</v>
       </c>
       <c r="G15">
-        <v>2.058093556229189</v>
+        <v>3.641771650148566</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.101960383642505</v>
+        <v>7.865773096119952</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.70439270324774</v>
+        <v>12.99169983632727</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.18780622752116</v>
+        <v>23.64227601957253</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.84058944864715</v>
+        <v>20.92710729266929</v>
       </c>
       <c r="C16">
-        <v>14.28553228778156</v>
+        <v>12.04354758664582</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.572867784321259</v>
+        <v>15.68254824165971</v>
       </c>
       <c r="F16">
-        <v>27.99705363720785</v>
+        <v>37.47717528214687</v>
       </c>
       <c r="G16">
-        <v>2.062459826207961</v>
+        <v>3.64320738434733</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.108958378196824</v>
+        <v>7.870187166112054</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.46243974348453</v>
+        <v>12.94828288698921</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.10427487152328</v>
+        <v>23.70921393937345</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.20865013762293</v>
+        <v>20.67321644375579</v>
       </c>
       <c r="C17">
-        <v>14.09120300017311</v>
+        <v>11.96920802157477</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.542478823973266</v>
+        <v>15.6915514819906</v>
       </c>
       <c r="F17">
-        <v>27.7147180006205</v>
+        <v>37.49178370616863</v>
       </c>
       <c r="G17">
-        <v>2.06515800054719</v>
+        <v>3.644107329671389</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.113508949850563</v>
+        <v>7.873022310582462</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.31228541679193</v>
+        <v>12.92194029473816</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.06163581623621</v>
+        <v>23.75221004794584</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.83964912084526</v>
+        <v>20.52585096677067</v>
       </c>
       <c r="C18">
-        <v>13.97844169345542</v>
+        <v>11.92622504831341</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.525501575695184</v>
+        <v>15.6969375867736</v>
       </c>
       <c r="F18">
-        <v>27.55489490164835</v>
+        <v>37.5012614153811</v>
       </c>
       <c r="G18">
-        <v>2.066717530838101</v>
+        <v>3.644632016846905</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.116220445890962</v>
+        <v>7.874699883405048</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.22530408715121</v>
+        <v>12.906899078045</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.04017680449122</v>
+        <v>23.77764782838442</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.71375886979146</v>
+        <v>20.47573069777866</v>
       </c>
       <c r="C19">
-        <v>13.940094560233</v>
+        <v>11.91163413484224</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.519839011811767</v>
+        <v>15.69879690909841</v>
       </c>
       <c r="F19">
-        <v>27.50122315761389</v>
+        <v>37.5046549381909</v>
       </c>
       <c r="G19">
-        <v>2.067246905697823</v>
+        <v>3.644810881592425</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.117154631147303</v>
+        <v>7.875275941315054</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.1957495570081</v>
+        <v>12.90182560742978</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.03342842058943</v>
+        <v>23.7863819195234</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.27649221523429</v>
+        <v>20.70038265010196</v>
       </c>
       <c r="C20">
-        <v>14.11199234450071</v>
+        <v>11.97714509918277</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.545661734883886</v>
+        <v>15.69057158026257</v>
       </c>
       <c r="F20">
-        <v>27.7445073382283</v>
+        <v>37.49011728561568</v>
       </c>
       <c r="G20">
-        <v>2.064869996443745</v>
+        <v>3.644010798425512</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.113014780568261</v>
+        <v>7.87271565586586</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.32833381631024</v>
+        <v>12.92473315383375</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.06585531319148</v>
+        <v>23.74755975523854</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.10145198313202</v>
+        <v>21.43893906641921</v>
       </c>
       <c r="C21">
-        <v>14.67762855734663</v>
+        <v>12.19449450449952</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.638454873873373</v>
+        <v>15.66541608103335</v>
       </c>
       <c r="F21">
-        <v>28.59257043086133</v>
+        <v>37.45413103624581</v>
       </c>
       <c r="G21">
-        <v>2.056971992583075</v>
+        <v>3.641406883488789</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.100233688909015</v>
+        <v>7.864672725402776</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.76631444180145</v>
+        <v>13.00299719850863</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.21210970590266</v>
+        <v>23.62559317039525</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.24581456745504</v>
+        <v>21.90886039227076</v>
       </c>
       <c r="C22">
-        <v>15.03819654983135</v>
+        <v>12.33432678672632</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.703683703020344</v>
+        <v>15.65082225788868</v>
       </c>
       <c r="F22">
-        <v>29.16961377247194</v>
+        <v>37.44021687048983</v>
       </c>
       <c r="G22">
-        <v>2.051869110051023</v>
+        <v>3.639767584814188</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.092729935145551</v>
+        <v>7.859831335582783</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.04673427917352</v>
+        <v>13.05506721289947</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.33700782248733</v>
+        <v>23.55223249203947</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.63942857903628</v>
+        <v>21.65926287657541</v>
       </c>
       <c r="C23">
-        <v>14.84660059853783</v>
+        <v>12.25990879891345</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.668444915581496</v>
+        <v>15.65844241280892</v>
       </c>
       <c r="F23">
-        <v>28.85955385787099</v>
+        <v>37.44676308332716</v>
       </c>
       <c r="G23">
-        <v>2.054587673441934</v>
+        <v>3.640636807985318</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.096656535667213</v>
+        <v>7.862377401530122</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.89761610788828</v>
+        <v>13.02719536620524</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.2675709340333</v>
+        <v>23.59080284834499</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.24583854652791</v>
+        <v>20.68810515942497</v>
       </c>
       <c r="C24">
-        <v>14.10259671386555</v>
+        <v>11.97355750451018</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.544221204166695</v>
+        <v>15.69101393961195</v>
       </c>
       <c r="F24">
-        <v>27.73103180494403</v>
+        <v>37.49086731323476</v>
       </c>
       <c r="G24">
-        <v>2.065000177107575</v>
+        <v>3.644054417468188</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.113237897747093</v>
+        <v>7.872854146121626</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.32108037294383</v>
+        <v>12.92347017919441</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.06393818648351</v>
+        <v>23.74965991422269</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.45221765207518</v>
+        <v>19.59022105817964</v>
       </c>
       <c r="C25">
-        <v>13.26258531411701</v>
+        <v>11.6562266597933</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.429332771845322</v>
+        <v>15.73408871360772</v>
       </c>
       <c r="F25">
-        <v>26.61197532771899</v>
+        <v>37.57952395181037</v>
       </c>
       <c r="G25">
-        <v>2.076527142751066</v>
+        <v>3.648011111400145</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.134716844284745</v>
+        <v>7.885948412413112</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.6759294435812</v>
+        <v>12.81583893985806</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.96017668538679</v>
+        <v>23.94803391954737</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_195/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_195/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.74414781856099</v>
+        <v>24.20845727829427</v>
       </c>
       <c r="C2">
-        <v>11.41650246686654</v>
+        <v>12.61414017268298</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>15.77264841220765</v>
+        <v>9.360488817284194</v>
       </c>
       <c r="F2">
-        <v>37.67989913236096</v>
+        <v>25.87245393081672</v>
       </c>
       <c r="G2">
-        <v>3.651159446677739</v>
+        <v>2.085312794134639</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.897145562944408</v>
+        <v>5.153570428470201</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.74054999606443</v>
+        <v>9.183304546853972</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.11707720413692</v>
+        <v>14.97178312163897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.15060801836043</v>
+        <v>22.56902796655632</v>
       </c>
       <c r="C3">
-        <v>11.25089673109048</v>
+        <v>12.15758851488847</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.80305615782843</v>
+        <v>9.323290401942355</v>
       </c>
       <c r="F3">
-        <v>37.76966863127084</v>
+        <v>25.42355392550713</v>
       </c>
       <c r="G3">
-        <v>3.653441036034238</v>
+        <v>2.091473134353533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.905711441890567</v>
+        <v>5.168220561484697</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.69214155118813</v>
+        <v>8.840073546140612</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.24584427579515</v>
+        <v>15.02842667380573</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.77753823037522</v>
+        <v>21.50308105825944</v>
       </c>
       <c r="C4">
-        <v>11.14789228683985</v>
+        <v>11.86950357129563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.82383742462421</v>
+        <v>9.304986710839636</v>
       </c>
       <c r="F4">
-        <v>37.83545521144573</v>
+        <v>25.17341731969786</v>
       </c>
       <c r="G4">
-        <v>3.654915341393064</v>
+        <v>2.095363433333576</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.911455398534524</v>
+        <v>5.17813296540066</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>12.66375553266892</v>
+        <v>8.625365810614666</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.33187061669377</v>
+        <v>15.08520414957929</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.6235546178762</v>
+        <v>21.05367622394034</v>
       </c>
       <c r="C5">
-        <v>11.10562049341983</v>
+        <v>11.75027296803376</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.83283701249318</v>
+        <v>9.298648772466173</v>
       </c>
       <c r="F5">
-        <v>37.86493712084933</v>
+        <v>25.07782955555788</v>
       </c>
       <c r="G5">
-        <v>3.655534650084171</v>
+        <v>2.096976717991902</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.91391828278268</v>
+        <v>5.182402078126186</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>12.65253120016222</v>
+        <v>8.536988087870597</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.36867131735724</v>
+        <v>15.11356742190226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.59787437163662</v>
+        <v>20.97814255319237</v>
       </c>
       <c r="C6">
-        <v>11.09858443631823</v>
+        <v>11.73036780280064</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.83436346903716</v>
+        <v>9.297663470733932</v>
       </c>
       <c r="F6">
-        <v>37.86999374857911</v>
+        <v>25.06233812186338</v>
       </c>
       <c r="G6">
-        <v>3.655638605989306</v>
+        <v>2.097246315002049</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.914334632222275</v>
+        <v>5.183124811209852</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>12.65068833516502</v>
+        <v>8.52226329990153</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.37488720243772</v>
+        <v>15.11858388937215</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.77546916886692</v>
+        <v>21.4970811906565</v>
       </c>
       <c r="C7">
-        <v>11.14732334800171</v>
+        <v>11.86790284353084</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.82395664565134</v>
+        <v>9.304896723188229</v>
       </c>
       <c r="F7">
-        <v>37.83584200328936</v>
+        <v>25.17210260286179</v>
       </c>
       <c r="G7">
-        <v>3.654923618551716</v>
+        <v>2.095385076376869</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.911488118711802</v>
+        <v>5.178189611114227</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>12.66360275876897</v>
+        <v>8.624177331656576</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.33235987009516</v>
+        <v>15.08556590815161</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.54141163798687</v>
+        <v>23.65543311298088</v>
       </c>
       <c r="C8">
-        <v>11.3596971631183</v>
+        <v>12.45839785001653</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>15.78269508447835</v>
+        <v>9.346709713679429</v>
       </c>
       <c r="F8">
-        <v>37.70863232089724</v>
+        <v>25.7123512574911</v>
       </c>
       <c r="G8">
-        <v>3.651930940769566</v>
+        <v>2.087415021945702</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.899998735965022</v>
+        <v>5.158430870495142</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.72358557666103</v>
+        <v>9.065845296384236</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.16002699245087</v>
+        <v>14.98656355671751</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.96630938864775</v>
+        <v>27.42196733521541</v>
       </c>
       <c r="C9">
-        <v>11.76414681801424</v>
+        <v>13.55037550973864</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>15.71851666701057</v>
+        <v>9.465539999830778</v>
       </c>
       <c r="F9">
-        <v>37.5441900992102</v>
+        <v>26.97579731603525</v>
       </c>
       <c r="G9">
-        <v>3.64664195591925</v>
+        <v>2.072600729807774</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.881296803184569</v>
+        <v>5.127006345462239</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.85149954249576</v>
+        <v>9.896168506522727</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.87762403061025</v>
+        <v>14.98065758080061</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.95589401522366</v>
+        <v>29.91195215602091</v>
       </c>
       <c r="C10">
-        <v>12.05199903024433</v>
+        <v>14.30757150998096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>15.68154904208</v>
+        <v>9.57640375271818</v>
       </c>
       <c r="F10">
-        <v>37.4756541834253</v>
+        <v>28.02961787230669</v>
       </c>
       <c r="G10">
-        <v>3.643105650006215</v>
+        <v>2.062152948157476</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.869870000069638</v>
+        <v>5.108451917581888</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.95130350110248</v>
+        <v>10.47948857840451</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.70440383411236</v>
+        <v>15.10956274985507</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.39181269595468</v>
+        <v>30.98602911720876</v>
       </c>
       <c r="C11">
-        <v>12.18053654162617</v>
+        <v>14.64150276677957</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>15.66693844230284</v>
+        <v>9.632176683750433</v>
       </c>
       <c r="F11">
-        <v>37.45590347369708</v>
+        <v>28.53628781285652</v>
       </c>
       <c r="G11">
-        <v>3.641571964239032</v>
+        <v>2.05748019396174</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.865169664990964</v>
+        <v>5.101012560224431</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.99787118792185</v>
+        <v>10.7382687757317</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.63312703189342</v>
+        <v>15.20095484660335</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.5547039257342</v>
+        <v>31.38445239301618</v>
       </c>
       <c r="C12">
-        <v>12.22883272593341</v>
+        <v>14.76639504443207</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>15.66172259399167</v>
+        <v>9.654081643915189</v>
       </c>
       <c r="F12">
-        <v>37.45007194035607</v>
+        <v>28.73206250039952</v>
       </c>
       <c r="G12">
-        <v>3.641001919557322</v>
+        <v>2.055720946640356</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.863460997389337</v>
+        <v>5.09834102150507</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.01566393979665</v>
+        <v>10.83526648950581</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.60722515342068</v>
+        <v>15.2405701769301</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.51972137364925</v>
+        <v>31.29901219994331</v>
       </c>
       <c r="C13">
-        <v>12.21844859134715</v>
+        <v>14.73956727751642</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>15.66283183383715</v>
+        <v>9.649328838834148</v>
       </c>
       <c r="F13">
-        <v>37.45125452714377</v>
+        <v>28.68972522696455</v>
       </c>
       <c r="G13">
-        <v>3.641124212594504</v>
+        <v>2.056099398822594</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.86382582606514</v>
+        <v>5.098909883002162</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.0118250472961</v>
+        <v>10.81442132538923</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.61275503009545</v>
+        <v>15.23181103667071</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.40525828796305</v>
+        <v>31.01897337974783</v>
       </c>
       <c r="C14">
-        <v>12.18451765488149</v>
+        <v>14.65180922809866</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>15.66650298309495</v>
+        <v>9.633962989561025</v>
       </c>
       <c r="F14">
-        <v>37.45539066726605</v>
+        <v>28.5523160284611</v>
       </c>
       <c r="G14">
-        <v>3.641524851616385</v>
+        <v>2.057335262431891</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.865027665877109</v>
+        <v>5.100789843628402</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.99933188328208</v>
+        <v>10.74626906643604</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.6309741990219</v>
+        <v>15.20411202262622</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.33485853301488</v>
+        <v>30.84636356796017</v>
       </c>
       <c r="C15">
-        <v>12.16368380300221</v>
+        <v>14.59785049753992</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>15.66879292185629</v>
+        <v>9.624653689233485</v>
       </c>
       <c r="F15">
-        <v>37.45813885671387</v>
+        <v>28.46865771639707</v>
       </c>
       <c r="G15">
-        <v>3.641771650148566</v>
+        <v>2.058093556229323</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.865773096119952</v>
+        <v>5.101960383642411</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.99169983632727</v>
+        <v>10.70439270324782</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.64227601957253</v>
+        <v>15.187806227521</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.92710729266929</v>
+        <v>29.84058944864717</v>
       </c>
       <c r="C16">
-        <v>12.04354758664582</v>
+        <v>14.28553228778156</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>15.68254824165971</v>
+        <v>9.572867784321442</v>
       </c>
       <c r="F16">
-        <v>37.47717528214687</v>
+        <v>27.99705363720787</v>
       </c>
       <c r="G16">
-        <v>3.64320738434733</v>
+        <v>2.062459826207826</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.870187166112054</v>
+        <v>5.108958378196764</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.94828288698921</v>
+        <v>10.46243974348464</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.70921393937345</v>
+        <v>15.10427487152318</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.67321644375579</v>
+        <v>29.20865013762296</v>
       </c>
       <c r="C17">
-        <v>11.96920802157477</v>
+        <v>14.09120300017311</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>15.6915514819906</v>
+        <v>9.542478823973319</v>
       </c>
       <c r="F17">
-        <v>37.49178370616863</v>
+        <v>27.71471800062056</v>
       </c>
       <c r="G17">
-        <v>3.644107329671389</v>
+        <v>2.065158000547323</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.873022310582462</v>
+        <v>5.113508949850598</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.92194029473816</v>
+        <v>10.31228541679194</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.75221004794584</v>
+        <v>15.06163581623622</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.52585096677067</v>
+        <v>28.83964912084524</v>
       </c>
       <c r="C18">
-        <v>11.92622504831341</v>
+        <v>13.97844169345537</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>15.6969375867736</v>
+        <v>9.525501575695216</v>
       </c>
       <c r="F18">
-        <v>37.5012614153811</v>
+        <v>27.55489490164832</v>
       </c>
       <c r="G18">
-        <v>3.644632016846905</v>
+        <v>2.066717530838235</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.874699883405048</v>
+        <v>5.11622044589106</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.906899078045</v>
+        <v>10.22530408715122</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.77764782838442</v>
+        <v>15.04017680449125</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.47573069777866</v>
+        <v>28.71375886979147</v>
       </c>
       <c r="C19">
-        <v>11.91163413484224</v>
+        <v>13.94009456023281</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>15.69879690909841</v>
+        <v>9.519839011811818</v>
       </c>
       <c r="F19">
-        <v>37.5046549381909</v>
+        <v>27.50122315761388</v>
       </c>
       <c r="G19">
-        <v>3.644810881592425</v>
+        <v>2.067246905697822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.875275941315054</v>
+        <v>5.117154631147308</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.90182560742978</v>
+        <v>10.19574955700812</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.7863819195234</v>
+        <v>15.03342842058941</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.70038265010196</v>
+        <v>29.27649221523428</v>
       </c>
       <c r="C20">
-        <v>11.97714509918277</v>
+        <v>14.1119923445007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>15.69057158026257</v>
+        <v>9.545661734883973</v>
       </c>
       <c r="F20">
-        <v>37.49011728561568</v>
+        <v>27.74450733822833</v>
       </c>
       <c r="G20">
-        <v>3.644010798425512</v>
+        <v>2.064869996443747</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.87271565586586</v>
+        <v>5.113014780568266</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.92473315383375</v>
+        <v>10.32833381631027</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.74755975523854</v>
+        <v>15.06585531319145</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.43893906641921</v>
+        <v>31.10145198313203</v>
       </c>
       <c r="C21">
-        <v>12.19449450449952</v>
+        <v>14.67762855734668</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>15.66541608103335</v>
+        <v>9.638454873873496</v>
       </c>
       <c r="F21">
-        <v>37.45413103624581</v>
+        <v>28.59257043086133</v>
       </c>
       <c r="G21">
-        <v>3.641406883488789</v>
+        <v>2.056971992583344</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.864672725402776</v>
+        <v>5.100233688909047</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.00299719850863</v>
+        <v>10.76631444180152</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.62559317039525</v>
+        <v>15.21210970590257</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.90886039227076</v>
+        <v>32.24581456745504</v>
       </c>
       <c r="C22">
-        <v>12.33432678672632</v>
+        <v>15.03819654983137</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>15.65082225788868</v>
+        <v>9.703683703020248</v>
       </c>
       <c r="F22">
-        <v>37.44021687048983</v>
+        <v>29.16961377247188</v>
       </c>
       <c r="G22">
-        <v>3.639767584814188</v>
+        <v>2.051869110051157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.859831335582783</v>
+        <v>5.092729935145493</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.05506721289947</v>
+        <v>11.0467342791735</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.55223249203947</v>
+        <v>15.33700782248729</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.65926287657541</v>
+        <v>31.63942857903626</v>
       </c>
       <c r="C23">
-        <v>12.25990879891345</v>
+        <v>14.846600598538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>15.65844241280892</v>
+        <v>9.668444915581592</v>
       </c>
       <c r="F23">
-        <v>37.44676308332716</v>
+        <v>28.859553857871</v>
       </c>
       <c r="G23">
-        <v>3.640636807985318</v>
+        <v>2.054587673441801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.862377401530122</v>
+        <v>5.096656535667281</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.02719536620524</v>
+        <v>10.8976161078883</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.59080284834499</v>
+        <v>15.26757093403327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.68810515942497</v>
+        <v>29.24583854652797</v>
       </c>
       <c r="C24">
-        <v>11.97355750451018</v>
+        <v>14.10259671386541</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>15.69101393961195</v>
+        <v>9.544221204166597</v>
       </c>
       <c r="F24">
-        <v>37.49086731323476</v>
+        <v>27.73103180494395</v>
       </c>
       <c r="G24">
-        <v>3.644054417468188</v>
+        <v>2.065000177107577</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.872854146121626</v>
+        <v>5.113237897747063</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.92347017919441</v>
+        <v>10.32108037294383</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.74965991422269</v>
+        <v>15.06393818648344</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.59022105817964</v>
+        <v>26.45221765207521</v>
       </c>
       <c r="C25">
-        <v>11.6562266597933</v>
+        <v>13.26258531411701</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.73408871360772</v>
+        <v>9.429332771845326</v>
       </c>
       <c r="F25">
-        <v>37.57952395181037</v>
+        <v>26.61197532771909</v>
       </c>
       <c r="G25">
-        <v>3.648011111400145</v>
+        <v>2.076527142751067</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.885948412413112</v>
+        <v>5.134716844284718</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.81583893985806</v>
+        <v>9.67592944358117</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.94803391954737</v>
+        <v>14.96017668538683</v>
       </c>
     </row>
   </sheetData>
